--- a/languageGP/test_problems/problem_4b.xlsx
+++ b/languageGP/test_problems/problem_4b.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="data.xlsx" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data.xlsx" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C100"/>
+  <dimension ref="A1:C200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -426,10 +426,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="n">
-        <v>533849.0388833054</v>
+        <v>1801508.362090302</v>
       </c>
       <c r="C1" t="n">
-        <v>492427.8799999998</v>
+        <v>473370.7505000002</v>
       </c>
     </row>
     <row r="2">
@@ -437,10 +437,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>495149.2903869067</v>
+        <v>665026.1731210925</v>
       </c>
       <c r="C2" t="n">
-        <v>490680</v>
+        <v>471306.856</v>
       </c>
     </row>
     <row r="3">
@@ -448,10 +448,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>491099.4911999999</v>
+        <v>1126942.373955059</v>
       </c>
       <c r="C3" t="n">
-        <v>490680</v>
+        <v>471306.856</v>
       </c>
     </row>
     <row r="4">
@@ -459,10 +459,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>490680</v>
+        <v>478623.7695410589</v>
       </c>
       <c r="C4" t="n">
-        <v>490680</v>
+        <v>471306.856</v>
       </c>
     </row>
     <row r="5">
@@ -470,10 +470,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>490680</v>
+        <v>531001.1558254542</v>
       </c>
       <c r="C5" t="n">
-        <v>490680</v>
+        <v>471306.856</v>
       </c>
     </row>
     <row r="6">
@@ -481,10 +481,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>490680</v>
+        <v>703723.9268680009</v>
       </c>
       <c r="C6" t="n">
-        <v>490680</v>
+        <v>471306.856</v>
       </c>
     </row>
     <row r="7">
@@ -492,10 +492,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>491056</v>
+        <v>474462.7709852503</v>
       </c>
       <c r="C7" t="n">
-        <v>490680</v>
+        <v>471306.856</v>
       </c>
     </row>
     <row r="8">
@@ -503,10 +503,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>490680</v>
+        <v>473067.0106652502</v>
       </c>
       <c r="C8" t="n">
-        <v>490680</v>
+        <v>471306.856</v>
       </c>
     </row>
     <row r="9">
@@ -514,10 +514,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>490680</v>
+        <v>473710.2829546</v>
       </c>
       <c r="C9" t="n">
-        <v>490680</v>
+        <v>452312.7426</v>
       </c>
     </row>
     <row r="10">
@@ -525,10 +525,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>490680</v>
+        <v>634578.0234547979</v>
       </c>
       <c r="C10" t="n">
-        <v>490680</v>
+        <v>452312.7426</v>
       </c>
     </row>
     <row r="11">
@@ -536,10 +536,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>490929.36</v>
+        <v>464262.202019</v>
       </c>
       <c r="C11" t="n">
-        <v>490680</v>
+        <v>452312.7426</v>
       </c>
     </row>
     <row r="12">
@@ -547,10 +547,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>490680</v>
+        <v>459401.7077866</v>
       </c>
       <c r="C12" t="n">
-        <v>490680</v>
+        <v>452312.7426</v>
       </c>
     </row>
     <row r="13">
@@ -558,10 +558,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>490680</v>
+        <v>564366.5834983193</v>
       </c>
       <c r="C13" t="n">
-        <v>490680</v>
+        <v>452312.7426</v>
       </c>
     </row>
     <row r="14">
@@ -569,10 +569,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>490680</v>
+        <v>459497.2663039999</v>
       </c>
       <c r="C14" t="n">
-        <v>490680</v>
+        <v>452312.7426</v>
       </c>
     </row>
     <row r="15">
@@ -580,10 +580,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>491234.92</v>
+        <v>454046.21271262</v>
       </c>
       <c r="C15" t="n">
-        <v>490680</v>
+        <v>452312.7426</v>
       </c>
     </row>
     <row r="16">
@@ -591,10 +591,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>490680</v>
+        <v>453078.16598124</v>
       </c>
       <c r="C16" t="n">
-        <v>490680</v>
+        <v>452312.7426</v>
       </c>
     </row>
     <row r="17">
@@ -602,10 +602,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>490680</v>
+        <v>939152.8608514001</v>
       </c>
       <c r="C17" t="n">
-        <v>490680</v>
+        <v>452312.7426</v>
       </c>
     </row>
     <row r="18">
@@ -613,10 +613,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>491056</v>
+        <v>504264.81793528</v>
       </c>
       <c r="C18" t="n">
-        <v>490680</v>
+        <v>452312.7426</v>
       </c>
     </row>
     <row r="19">
@@ -624,10 +624,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>490773.6</v>
+        <v>452935.301444</v>
       </c>
       <c r="C19" t="n">
-        <v>490680</v>
+        <v>452312.7426</v>
       </c>
     </row>
     <row r="20">
@@ -635,10 +635,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>490680</v>
+        <v>493435.1148144493</v>
       </c>
       <c r="C20" t="n">
-        <v>490680</v>
+        <v>434506.7660000001</v>
       </c>
     </row>
     <row r="21">
@@ -646,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>490680</v>
+        <v>455047.682392</v>
       </c>
       <c r="C21" t="n">
-        <v>490680</v>
+        <v>424710.6535000001</v>
       </c>
     </row>
     <row r="22">
@@ -657,10 +657,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>490680</v>
+        <v>496531.5654389001</v>
       </c>
       <c r="C22" t="n">
-        <v>490680</v>
+        <v>408508.4573000001</v>
       </c>
     </row>
     <row r="23">
@@ -668,10 +668,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>490680</v>
+        <v>419808.6222829201</v>
       </c>
       <c r="C23" t="n">
-        <v>490680</v>
+        <v>408508.4573000001</v>
       </c>
     </row>
     <row r="24">
@@ -679,10 +679,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>490869.4168000001</v>
+        <v>530973.7087478376</v>
       </c>
       <c r="C24" t="n">
-        <v>490680</v>
+        <v>408108.4573000001</v>
       </c>
     </row>
     <row r="25">
@@ -690,10 +690,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>490680</v>
+        <v>409620.9962875714</v>
       </c>
       <c r="C25" t="n">
-        <v>490680</v>
+        <v>407508.4573000001</v>
       </c>
     </row>
     <row r="26">
@@ -701,10 +701,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>490680</v>
+        <v>413142.75892156</v>
       </c>
       <c r="C26" t="n">
-        <v>490680</v>
+        <v>391508.6940000001</v>
       </c>
     </row>
     <row r="27">
@@ -712,10 +712,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>491056</v>
+        <v>406401.4168655601</v>
       </c>
       <c r="C27" t="n">
-        <v>490680</v>
+        <v>383446.4054</v>
       </c>
     </row>
     <row r="28">
@@ -723,10 +723,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>490680</v>
+        <v>394938.7084895801</v>
       </c>
       <c r="C28" t="n">
-        <v>490680</v>
+        <v>379346.2260000001</v>
       </c>
     </row>
     <row r="29">
@@ -734,10 +734,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>491056</v>
+        <v>897929.0686273712</v>
       </c>
       <c r="C29" t="n">
-        <v>490680</v>
+        <v>379346.2260000001</v>
       </c>
     </row>
     <row r="30">
@@ -745,10 +745,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>490680</v>
+        <v>388619.40512904</v>
       </c>
       <c r="C30" t="n">
-        <v>490680</v>
+        <v>376041.33</v>
       </c>
     </row>
     <row r="31">
@@ -756,10 +756,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>490680</v>
+        <v>380355.7559389201</v>
       </c>
       <c r="C31" t="n">
-        <v>490680</v>
+        <v>366006.7210000001</v>
       </c>
     </row>
     <row r="32">
@@ -767,10 +767,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>490680</v>
+        <v>370633.8346761336</v>
       </c>
       <c r="C32" t="n">
-        <v>490680</v>
+        <v>320606.8020000001</v>
       </c>
     </row>
     <row r="33">
@@ -778,10 +778,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>490781.6</v>
+        <v>470887.5354562567</v>
       </c>
       <c r="C33" t="n">
-        <v>490680</v>
+        <v>320606.8020000001</v>
       </c>
     </row>
     <row r="34">
@@ -789,10 +789,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>488800</v>
+        <v>331567.3199961143</v>
       </c>
       <c r="C34" t="n">
-        <v>481280</v>
+        <v>320606.8020000001</v>
       </c>
     </row>
     <row r="35">
@@ -800,10 +800,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>482208.9600000001</v>
+        <v>330800.5335672799</v>
       </c>
       <c r="C35" t="n">
-        <v>481280</v>
+        <v>320606.8020000001</v>
       </c>
     </row>
     <row r="36">
@@ -811,10 +811,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>843776</v>
+        <v>596624.529021702</v>
       </c>
       <c r="C36" t="n">
-        <v>481280</v>
+        <v>320006.8020000001</v>
       </c>
     </row>
     <row r="37">
@@ -822,10 +822,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>478877.44</v>
+        <v>561351.3998120003</v>
       </c>
       <c r="C37" t="n">
-        <v>472080</v>
+        <v>320006.8020000001</v>
       </c>
     </row>
     <row r="38">
@@ -833,10 +833,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>471993.9887999999</v>
+        <v>623686.8955420021</v>
       </c>
       <c r="C38" t="n">
-        <v>469405.6799999998</v>
+        <v>314408.901</v>
       </c>
     </row>
     <row r="39">
@@ -844,10 +844,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>470100.3798649779</v>
+        <v>319235.1030459999</v>
       </c>
       <c r="C39" t="n">
-        <v>462880</v>
+        <v>307847.94</v>
       </c>
     </row>
     <row r="40">
@@ -855,10 +855,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>471445.1887313731</v>
+        <v>322745.6148472</v>
       </c>
       <c r="C40" t="n">
-        <v>435200.0082843177</v>
+        <v>307847.94</v>
       </c>
     </row>
     <row r="41">
@@ -866,10 +866,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>938856.0779882368</v>
+        <v>320047.4681525772</v>
       </c>
       <c r="C41" t="n">
-        <v>435200.0082843177</v>
+        <v>252512.7102</v>
       </c>
     </row>
     <row r="42">
@@ -877,10 +877,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>438962.4819647085</v>
+        <v>346111.96910906</v>
       </c>
       <c r="C42" t="n">
-        <v>435200.0082843177</v>
+        <v>249906.973</v>
       </c>
     </row>
     <row r="43">
@@ -888,10 +888,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>436675.2076215721</v>
+        <v>3383077.038268975</v>
       </c>
       <c r="C43" t="n">
-        <v>435200.0082843177</v>
+        <v>247506.973</v>
       </c>
     </row>
     <row r="44">
@@ -899,10 +899,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>433351.8853019632</v>
+        <v>254178.6011507999</v>
       </c>
       <c r="C44" t="n">
-        <v>409399.9917156821</v>
+        <v>225108.7624</v>
       </c>
     </row>
     <row r="45">
@@ -910,10 +910,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>413766.9170176456</v>
+        <v>295750.12756258</v>
       </c>
       <c r="C45" t="n">
-        <v>401199.9917156821</v>
+        <v>225108.7624</v>
       </c>
     </row>
     <row r="46">
@@ -921,10 +921,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>402135.9907215639</v>
+        <v>234755.8886015027</v>
       </c>
       <c r="C46" t="n">
-        <v>356399.9668627288</v>
+        <v>206506.919</v>
       </c>
     </row>
     <row r="47">
@@ -932,10 +932,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>1669156.24089411</v>
+        <v>227086.61122276</v>
       </c>
       <c r="C47" t="n">
-        <v>356399.9668627288</v>
+        <v>206506.919</v>
       </c>
     </row>
     <row r="48">
@@ -943,10 +943,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>369051.1976848354</v>
+        <v>216827.46643871</v>
       </c>
       <c r="C48" t="n">
-        <v>356399.9668627288</v>
+        <v>206506.919</v>
       </c>
     </row>
     <row r="49">
@@ -954,10 +954,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>361430.9308392013</v>
+        <v>595587.9276859345</v>
       </c>
       <c r="C49" t="n">
-        <v>356399.9668627288</v>
+        <v>206506.919</v>
       </c>
     </row>
     <row r="50">
@@ -965,10 +965,10 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>365527.4433078286</v>
+        <v>213221.9391219999</v>
       </c>
       <c r="C50" t="n">
-        <v>356399.9668627288</v>
+        <v>203206.919</v>
       </c>
     </row>
     <row r="51">
@@ -976,10 +976,10 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>368682.6321646922</v>
+        <v>220486.7878824399</v>
       </c>
       <c r="C51" t="n">
-        <v>356399.9668627288</v>
+        <v>202306.919</v>
       </c>
     </row>
     <row r="52">
@@ -987,10 +987,10 @@
         <v>51</v>
       </c>
       <c r="B52" t="n">
-        <v>364194.6108392013</v>
+        <v>197582.643104</v>
       </c>
       <c r="C52" t="n">
-        <v>356399.9668627288</v>
+        <v>146707</v>
       </c>
     </row>
     <row r="53">
@@ -998,10 +998,10 @@
         <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>362981.4515019467</v>
+        <v>601417.696923312</v>
       </c>
       <c r="C53" t="n">
-        <v>356399.9668627288</v>
+        <v>146707</v>
       </c>
     </row>
     <row r="54">
@@ -1009,10 +1009,10 @@
         <v>53</v>
       </c>
       <c r="B54" t="n">
-        <v>356848.7628862562</v>
+        <v>581919.8493625004</v>
       </c>
       <c r="C54" t="n">
-        <v>323899.9337254576</v>
+        <v>146206.946</v>
       </c>
     </row>
     <row r="55">
@@ -1020,10 +1020,10 @@
         <v>54</v>
       </c>
       <c r="B55" t="n">
-        <v>155077.1770847554</v>
+        <v>340350.7989675958</v>
       </c>
       <c r="C55" t="n">
-        <v>67325.93999999993</v>
+        <v>144907</v>
       </c>
     </row>
     <row r="56">
@@ -1031,10 +1031,10 @@
         <v>55</v>
       </c>
       <c r="B56" t="n">
-        <v>82891.77818043713</v>
+        <v>154238.3940283171</v>
       </c>
       <c r="C56" t="n">
-        <v>44164.25179542982</v>
+        <v>144907</v>
       </c>
     </row>
     <row r="57">
@@ -1042,10 +1042,10 @@
         <v>56</v>
       </c>
       <c r="B57" t="n">
-        <v>63937.41522583304</v>
+        <v>195778.9905265785</v>
       </c>
       <c r="C57" t="n">
-        <v>42608.67972433804</v>
+        <v>144907</v>
       </c>
     </row>
     <row r="58">
@@ -1053,10 +1053,10 @@
         <v>57</v>
       </c>
       <c r="B58" t="n">
-        <v>51043.39650924916</v>
+        <v>148984.889051171</v>
       </c>
       <c r="C58" t="n">
-        <v>38308.67972433803</v>
+        <v>144206.946</v>
       </c>
     </row>
     <row r="59">
@@ -1064,10 +1064,10 @@
         <v>58</v>
       </c>
       <c r="B59" t="n">
-        <v>57446.96815379033</v>
+        <v>151079.6104984</v>
       </c>
       <c r="C59" t="n">
-        <v>38308.67972433803</v>
+        <v>141344.46</v>
       </c>
     </row>
     <row r="60">
@@ -1075,10 +1075,10 @@
         <v>59</v>
       </c>
       <c r="B60" t="n">
-        <v>66388.679724338</v>
+        <v>154574.251498</v>
       </c>
       <c r="C60" t="n">
-        <v>38308.67972433803</v>
+        <v>137806.946</v>
       </c>
     </row>
     <row r="61">
@@ -1086,10 +1086,10 @@
         <v>60</v>
       </c>
       <c r="B61" t="n">
-        <v>58607.53253536449</v>
+        <v>144259.244856</v>
       </c>
       <c r="C61" t="n">
-        <v>38308.67972433803</v>
+        <v>136808.7264</v>
       </c>
     </row>
     <row r="62">
@@ -1097,10 +1097,10 @@
         <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v>59033.01253536449</v>
+        <v>196898.6434244</v>
       </c>
       <c r="C62" t="n">
-        <v>38308.67972433803</v>
+        <v>134410.8506</v>
       </c>
     </row>
     <row r="63">
@@ -1108,10 +1108,10 @@
         <v>62</v>
       </c>
       <c r="B63" t="n">
-        <v>54723.4464998186</v>
+        <v>517544.3728099412</v>
       </c>
       <c r="C63" t="n">
-        <v>38308.67972433803</v>
+        <v>125212.7975</v>
       </c>
     </row>
     <row r="64">
@@ -1119,10 +1119,10 @@
         <v>63</v>
       </c>
       <c r="B64" t="n">
-        <v>59186.11815741745</v>
+        <v>129998.126132282</v>
       </c>
       <c r="C64" t="n">
-        <v>38308.67972433803</v>
+        <v>124706.937</v>
       </c>
     </row>
     <row r="65">
@@ -1130,10 +1130,10 @@
         <v>64</v>
       </c>
       <c r="B65" t="n">
-        <v>60523.53253536449</v>
+        <v>128814.60131086</v>
       </c>
       <c r="C65" t="n">
-        <v>38308.67972433803</v>
+        <v>123408.9316</v>
       </c>
     </row>
     <row r="66">
@@ -1141,10 +1141,10 @@
         <v>65</v>
       </c>
       <c r="B66" t="n">
-        <v>42563.53253536449</v>
+        <v>125250.75236</v>
       </c>
       <c r="C66" t="n">
-        <v>38308.67972433803</v>
+        <v>117506.937</v>
       </c>
     </row>
     <row r="67">
@@ -1152,10 +1152,10 @@
         <v>66</v>
       </c>
       <c r="B67" t="n">
-        <v>41508.67972433801</v>
+        <v>181086.8889540007</v>
       </c>
       <c r="C67" t="n">
-        <v>38308.67972433803</v>
+        <v>117506.937</v>
       </c>
     </row>
     <row r="68">
@@ -1163,10 +1163,10 @@
         <v>67</v>
       </c>
       <c r="B68" t="n">
-        <v>39687.53253536449</v>
+        <v>120043.7163590599</v>
       </c>
       <c r="C68" t="n">
-        <v>38308.67972433803</v>
+        <v>116208.9316</v>
       </c>
     </row>
     <row r="69">
@@ -1174,10 +1174,10 @@
         <v>68</v>
       </c>
       <c r="B69" t="n">
-        <v>41243.53253536449</v>
+        <v>120728.6919105</v>
       </c>
       <c r="C69" t="n">
-        <v>38308.67972433803</v>
+        <v>115308.9316</v>
       </c>
     </row>
     <row r="70">
@@ -1185,10 +1185,10 @@
         <v>69</v>
       </c>
       <c r="B70" t="n">
-        <v>41378.07815741745</v>
+        <v>117196.70871284</v>
       </c>
       <c r="C70" t="n">
-        <v>38308.67972433803</v>
+        <v>111712.7975</v>
       </c>
     </row>
     <row r="71">
@@ -1196,10 +1196,10 @@
         <v>70</v>
       </c>
       <c r="B71" t="n">
-        <v>458022.3853463911</v>
+        <v>118198.8161322601</v>
       </c>
       <c r="C71" t="n">
-        <v>38308.67972433803</v>
+        <v>111712.7975</v>
       </c>
     </row>
     <row r="72">
@@ -1207,10 +1207,10 @@
         <v>71</v>
       </c>
       <c r="B72" t="n">
-        <v>55359.53253536449</v>
+        <v>502779.248800106</v>
       </c>
       <c r="C72" t="n">
-        <v>37808.67972433803</v>
+        <v>111712.7975</v>
       </c>
     </row>
     <row r="73">
@@ -1218,10 +1218,10 @@
         <v>72</v>
       </c>
       <c r="B73" t="n">
-        <v>335928.1153427639</v>
+        <v>117744.7349551</v>
       </c>
       <c r="C73" t="n">
-        <v>37808.67972433803</v>
+        <v>108712.7975</v>
       </c>
     </row>
     <row r="74">
@@ -1229,10 +1229,10 @@
         <v>73</v>
       </c>
       <c r="B74" t="n">
-        <v>56228.11534276383</v>
+        <v>122479.6517012</v>
       </c>
       <c r="C74" t="n">
-        <v>37808.67972433803</v>
+        <v>108312.7975</v>
       </c>
     </row>
     <row r="75">
@@ -1240,10 +1240,10 @@
         <v>74</v>
       </c>
       <c r="B75" t="n">
-        <v>37808.67972433801</v>
+        <v>110109.430512</v>
       </c>
       <c r="C75" t="n">
-        <v>37808.67972433803</v>
+        <v>107806.937</v>
       </c>
     </row>
     <row r="76">
@@ -1251,10 +1251,10 @@
         <v>75</v>
       </c>
       <c r="B76" t="n">
-        <v>38856.67972433801</v>
+        <v>340060.5066155962</v>
       </c>
       <c r="C76" t="n">
-        <v>37808.67972433803</v>
+        <v>107806.937</v>
       </c>
     </row>
     <row r="77">
@@ -1262,10 +1262,10 @@
         <v>76</v>
       </c>
       <c r="B77" t="n">
-        <v>58078.46534639097</v>
+        <v>110207.8113019999</v>
       </c>
       <c r="C77" t="n">
-        <v>37808.67972433803</v>
+        <v>107806.937</v>
       </c>
     </row>
     <row r="78">
@@ -1273,10 +1273,10 @@
         <v>77</v>
       </c>
       <c r="B78" t="n">
-        <v>54710.45253536449</v>
+        <v>119575.1131399999</v>
       </c>
       <c r="C78" t="n">
-        <v>37808.67972433803</v>
+        <v>107108.9316</v>
       </c>
     </row>
     <row r="79">
@@ -1284,10 +1284,10 @@
         <v>78</v>
       </c>
       <c r="B79" t="n">
-        <v>41110.51377584328</v>
+        <v>107877.5120359999</v>
       </c>
       <c r="C79" t="n">
-        <v>37808.67972433803</v>
+        <v>107108.9316</v>
       </c>
     </row>
     <row r="80">
@@ -1295,10 +1295,10 @@
         <v>79</v>
       </c>
       <c r="B80" t="n">
-        <v>57096.9809648168</v>
+        <v>180839.6920959997</v>
       </c>
       <c r="C80" t="n">
-        <v>37808.67972433803</v>
+        <v>107108.9316</v>
       </c>
     </row>
     <row r="81">
@@ -1306,10 +1306,10 @@
         <v>80</v>
       </c>
       <c r="B81" t="n">
-        <v>42022.4525353645</v>
+        <v>116281.4712983672</v>
       </c>
       <c r="C81" t="n">
-        <v>35508.67972433804</v>
+        <v>107108.9316</v>
       </c>
     </row>
     <row r="82">
@@ -1317,10 +1317,10 @@
         <v>81</v>
       </c>
       <c r="B82" t="n">
-        <v>38744.67972433801</v>
+        <v>108127.0344103672</v>
       </c>
       <c r="C82" t="n">
-        <v>35508.67972433804</v>
+        <v>107108.9316</v>
       </c>
     </row>
     <row r="83">
@@ -1328,10 +1328,10 @@
         <v>82</v>
       </c>
       <c r="B83" t="n">
-        <v>206940.679724338</v>
+        <v>130965.1910194395</v>
       </c>
       <c r="C83" t="n">
-        <v>35508.67972433804</v>
+        <v>105508.9406</v>
       </c>
     </row>
     <row r="84">
@@ -1339,10 +1339,10 @@
         <v>83</v>
       </c>
       <c r="B84" t="n">
-        <v>153143.5325353645</v>
+        <v>109959.5720755793</v>
       </c>
       <c r="C84" t="n">
-        <v>35508.67972433804</v>
+        <v>104908.9406</v>
       </c>
     </row>
     <row r="85">
@@ -1350,10 +1350,10 @@
         <v>84</v>
       </c>
       <c r="B85" t="n">
-        <v>37900.67972433803</v>
+        <v>172781.4845508893</v>
       </c>
       <c r="C85" t="n">
-        <v>35508.67972433804</v>
+        <v>104708.9406</v>
       </c>
     </row>
     <row r="86">
@@ -1361,10 +1361,10 @@
         <v>85</v>
       </c>
       <c r="B86" t="n">
-        <v>56599.53253536451</v>
+        <v>128921.7264979999</v>
       </c>
       <c r="C86" t="n">
-        <v>35508.67972433804</v>
+        <v>104708.9406</v>
       </c>
     </row>
     <row r="87">
@@ -1372,10 +1372,10 @@
         <v>86</v>
       </c>
       <c r="B87" t="n">
-        <v>55604.67972433803</v>
+        <v>105604.47479</v>
       </c>
       <c r="C87" t="n">
-        <v>35508.67972433804</v>
+        <v>104708.9406</v>
       </c>
     </row>
     <row r="88">
@@ -1383,10 +1383,10 @@
         <v>87</v>
       </c>
       <c r="B88" t="n">
-        <v>56116.67972433802</v>
+        <v>190732.9417200014</v>
       </c>
       <c r="C88" t="n">
-        <v>35508.67972433804</v>
+        <v>104708.9406</v>
       </c>
     </row>
     <row r="89">
@@ -1394,10 +1394,10 @@
         <v>88</v>
       </c>
       <c r="B89" t="n">
-        <v>74345.24066301034</v>
+        <v>105427.3673213</v>
       </c>
       <c r="C89" t="n">
-        <v>35508.67972433804</v>
+        <v>104708.9406</v>
       </c>
     </row>
     <row r="90">
@@ -1405,10 +1405,10 @@
         <v>89</v>
       </c>
       <c r="B90" t="n">
-        <v>69703.5325353645</v>
+        <v>107961.4074730771</v>
       </c>
       <c r="C90" t="n">
-        <v>35508.67972433804</v>
+        <v>102308.7264</v>
       </c>
     </row>
     <row r="91">
@@ -1416,10 +1416,10 @@
         <v>90</v>
       </c>
       <c r="B91" t="n">
-        <v>816737.3053463912</v>
+        <v>105626.9440364975</v>
       </c>
       <c r="C91" t="n">
-        <v>35308.67972433804</v>
+        <v>102008.9406</v>
       </c>
     </row>
     <row r="92">
@@ -1427,10 +1427,10 @@
         <v>91</v>
       </c>
       <c r="B92" t="n">
-        <v>37499.53253536451</v>
+        <v>103663.5558064975</v>
       </c>
       <c r="C92" t="n">
-        <v>35308.67972433804</v>
+        <v>102008.9406</v>
       </c>
     </row>
     <row r="93">
@@ -1438,10 +1438,10 @@
         <v>92</v>
       </c>
       <c r="B93" t="n">
-        <v>54934.80565832425</v>
+        <v>140034.1432024982</v>
       </c>
       <c r="C93" t="n">
-        <v>35308.67972433804</v>
+        <v>102008.9406</v>
       </c>
     </row>
     <row r="94">
@@ -1449,10 +1449,10 @@
         <v>93</v>
       </c>
       <c r="B94" t="n">
-        <v>39069.83939064199</v>
+        <v>102481.230672</v>
       </c>
       <c r="C94" t="n">
-        <v>35094.57018498368</v>
+        <v>101008.9406</v>
       </c>
     </row>
     <row r="95">
@@ -1460,10 +1460,10 @@
         <v>94</v>
       </c>
       <c r="B95" t="n">
-        <v>41550.50243017772</v>
+        <v>260170.3248039212</v>
       </c>
       <c r="C95" t="n">
-        <v>35094.57018498368</v>
+        <v>101008.9406</v>
       </c>
     </row>
     <row r="96">
@@ -1471,10 +1471,10 @@
         <v>95</v>
       </c>
       <c r="B96" t="n">
-        <v>36588.26332970619</v>
+        <v>458119.9545719998</v>
       </c>
       <c r="C96" t="n">
-        <v>35094.57018498368</v>
+        <v>98908.81460000001</v>
       </c>
     </row>
     <row r="97">
@@ -1482,10 +1482,10 @@
         <v>96</v>
       </c>
       <c r="B97" t="n">
-        <v>55321.404570185</v>
+        <v>347687.3698226398</v>
       </c>
       <c r="C97" t="n">
-        <v>35094.57018498368</v>
+        <v>98908.81460000001</v>
       </c>
     </row>
     <row r="98">
@@ -1493,10 +1493,10 @@
         <v>97</v>
       </c>
       <c r="B98" t="n">
-        <v>63077.40457018498</v>
+        <v>107308.9036120001</v>
       </c>
       <c r="C98" t="n">
-        <v>35094.57018498368</v>
+        <v>98908.81460000001</v>
       </c>
     </row>
     <row r="99">
@@ -1504,10 +1504,10 @@
         <v>98</v>
       </c>
       <c r="B99" t="n">
-        <v>38941.96457018497</v>
+        <v>98078.25199200008</v>
       </c>
       <c r="C99" t="n">
-        <v>35094.57018498368</v>
+        <v>82506.97300000003</v>
       </c>
     </row>
     <row r="100">
@@ -1515,10 +1515,1110 @@
         <v>99</v>
       </c>
       <c r="B100" t="n">
-        <v>64815.004570185</v>
+        <v>624099.3696779794</v>
       </c>
       <c r="C100" t="n">
-        <v>35094.57018498368</v>
+        <v>82506.97300000003</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="n">
+        <v>85138.80140600009</v>
+      </c>
+      <c r="C101" t="n">
+        <v>80406.97300000001</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="n">
+        <v>81615.09489000009</v>
+      </c>
+      <c r="C102" t="n">
+        <v>80406.97300000001</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="n">
+        <v>83296.41302115849</v>
+      </c>
+      <c r="C103" t="n">
+        <v>80406.97300000001</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="n">
+        <v>137070.8667260003</v>
+      </c>
+      <c r="C104" t="n">
+        <v>80406.97300000001</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" t="n">
+        <v>80733.0700300001</v>
+      </c>
+      <c r="C105" t="n">
+        <v>80406.97300000001</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" t="n">
+        <v>80627.0507680001</v>
+      </c>
+      <c r="C106" t="n">
+        <v>79606.97300000001</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" t="n">
+        <v>80043.1678160001</v>
+      </c>
+      <c r="C107" t="n">
+        <v>76410.83530000002</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" t="n">
+        <v>78628.36306800002</v>
+      </c>
+      <c r="C108" t="n">
+        <v>76410.83530000002</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" t="n">
+        <v>81674.70495739995</v>
+      </c>
+      <c r="C109" t="n">
+        <v>76410.83530000002</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" t="n">
+        <v>85116.62406299995</v>
+      </c>
+      <c r="C110" t="n">
+        <v>74906.98200000002</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" t="n">
+        <v>76109.44811199994</v>
+      </c>
+      <c r="C111" t="n">
+        <v>74906.98200000002</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" t="n">
+        <v>75369.62210999997</v>
+      </c>
+      <c r="C112" t="n">
+        <v>74906.98200000002</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" t="n">
+        <v>397545.9264860002</v>
+      </c>
+      <c r="C113" t="n">
+        <v>74906.98200000002</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" t="n">
+        <v>225930.6949352398</v>
+      </c>
+      <c r="C114" t="n">
+        <v>74306.98200000002</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" t="n">
+        <v>171890.1724800026</v>
+      </c>
+      <c r="C115" t="n">
+        <v>74306.98200000002</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" t="n">
+        <v>74698.88883199997</v>
+      </c>
+      <c r="C116" t="n">
+        <v>73010.83530000002</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" t="n">
+        <v>73822.31582599996</v>
+      </c>
+      <c r="C117" t="n">
+        <v>73010.83530000002</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" t="n">
+        <v>79516.71540799996</v>
+      </c>
+      <c r="C118" t="n">
+        <v>73010.83530000002</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" t="n">
+        <v>413675.0659399992</v>
+      </c>
+      <c r="C119" t="n">
+        <v>73010.83530000002</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>119</v>
+      </c>
+      <c r="B120" t="n">
+        <v>75638.46559999995</v>
+      </c>
+      <c r="C120" t="n">
+        <v>73010.83530000002</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>120</v>
+      </c>
+      <c r="B121" t="n">
+        <v>79819.26187799996</v>
+      </c>
+      <c r="C121" t="n">
+        <v>73010.83530000002</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>121</v>
+      </c>
+      <c r="B122" t="n">
+        <v>78806.13058847995</v>
+      </c>
+      <c r="C122" t="n">
+        <v>73010.83530000002</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>122</v>
+      </c>
+      <c r="B123" t="n">
+        <v>73916.63550522254</v>
+      </c>
+      <c r="C123" t="n">
+        <v>71808.8605</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>123</v>
+      </c>
+      <c r="B124" t="n">
+        <v>112490.3442391401</v>
+      </c>
+      <c r="C124" t="n">
+        <v>71808.8605</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>124</v>
+      </c>
+      <c r="B125" t="n">
+        <v>72178.25522276292</v>
+      </c>
+      <c r="C125" t="n">
+        <v>71808.8605</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>125</v>
+      </c>
+      <c r="B126" t="n">
+        <v>72890.54037857996</v>
+      </c>
+      <c r="C126" t="n">
+        <v>71808.8605</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>126</v>
+      </c>
+      <c r="B127" t="n">
+        <v>543559.9455835791</v>
+      </c>
+      <c r="C127" t="n">
+        <v>71808.8605</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>127</v>
+      </c>
+      <c r="B128" t="n">
+        <v>78817.07905971997</v>
+      </c>
+      <c r="C128" t="n">
+        <v>71208.8605</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>128</v>
+      </c>
+      <c r="B129" t="n">
+        <v>580814.0288800164</v>
+      </c>
+      <c r="C129" t="n">
+        <v>71208.8605</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>129</v>
+      </c>
+      <c r="B130" t="n">
+        <v>348865.4816279999</v>
+      </c>
+      <c r="C130" t="n">
+        <v>71208.8605</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>130</v>
+      </c>
+      <c r="B131" t="n">
+        <v>75137.91491831996</v>
+      </c>
+      <c r="C131" t="n">
+        <v>71208.8605</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>131</v>
+      </c>
+      <c r="B132" t="n">
+        <v>140222.7638079991</v>
+      </c>
+      <c r="C132" t="n">
+        <v>71108.8416</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>132</v>
+      </c>
+      <c r="B133" t="n">
+        <v>71383.58132599996</v>
+      </c>
+      <c r="C133" t="n">
+        <v>70308.8605</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>133</v>
+      </c>
+      <c r="B134" t="n">
+        <v>71367.57277799996</v>
+      </c>
+      <c r="C134" t="n">
+        <v>70308.8605</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>134</v>
+      </c>
+      <c r="B135" t="n">
+        <v>80135.53693599997</v>
+      </c>
+      <c r="C135" t="n">
+        <v>70308.8605</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>135</v>
+      </c>
+      <c r="B136" t="n">
+        <v>70596.18965399997</v>
+      </c>
+      <c r="C136" t="n">
+        <v>70308.8605</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>136</v>
+      </c>
+      <c r="B137" t="n">
+        <v>465037.8379387681</v>
+      </c>
+      <c r="C137" t="n">
+        <v>70308.8605</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>137</v>
+      </c>
+      <c r="B138" t="n">
+        <v>78917.01801599996</v>
+      </c>
+      <c r="C138" t="n">
+        <v>70308.8605</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>138</v>
+      </c>
+      <c r="B139" t="n">
+        <v>72532.36485992937</v>
+      </c>
+      <c r="C139" t="n">
+        <v>70308.8605</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>139</v>
+      </c>
+      <c r="B140" t="n">
+        <v>70320.82238999996</v>
+      </c>
+      <c r="C140" t="n">
+        <v>70308.8605</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>140</v>
+      </c>
+      <c r="B141" t="n">
+        <v>107547.48111929</v>
+      </c>
+      <c r="C141" t="n">
+        <v>69306.955</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>141</v>
+      </c>
+      <c r="B142" t="n">
+        <v>288387.8975640063</v>
+      </c>
+      <c r="C142" t="n">
+        <v>69306.955</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>142</v>
+      </c>
+      <c r="B143" t="n">
+        <v>359704.1316180238</v>
+      </c>
+      <c r="C143" t="n">
+        <v>69306.955</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>143</v>
+      </c>
+      <c r="B144" t="n">
+        <v>72079.03456090167</v>
+      </c>
+      <c r="C144" t="n">
+        <v>69306.955</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>144</v>
+      </c>
+      <c r="B145" t="n">
+        <v>69475.43826934004</v>
+      </c>
+      <c r="C145" t="n">
+        <v>69212.69309999999</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>145</v>
+      </c>
+      <c r="B146" t="n">
+        <v>76555.05714655999</v>
+      </c>
+      <c r="C146" t="n">
+        <v>69212.69309999999</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>146</v>
+      </c>
+      <c r="B147" t="n">
+        <v>69483.08769199996</v>
+      </c>
+      <c r="C147" t="n">
+        <v>69212.69309999999</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>147</v>
+      </c>
+      <c r="B148" t="n">
+        <v>72846.44109865425</v>
+      </c>
+      <c r="C148" t="n">
+        <v>69212.69309999999</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>148</v>
+      </c>
+      <c r="B149" t="n">
+        <v>116530.7212739999</v>
+      </c>
+      <c r="C149" t="n">
+        <v>69212.69309999999</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>149</v>
+      </c>
+      <c r="B150" t="n">
+        <v>69212.69309999993</v>
+      </c>
+      <c r="C150" t="n">
+        <v>69212.69309999999</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>150</v>
+      </c>
+      <c r="B151" t="n">
+        <v>80710.51974599995</v>
+      </c>
+      <c r="C151" t="n">
+        <v>69212.69309999999</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>151</v>
+      </c>
+      <c r="B152" t="n">
+        <v>69250.46357599994</v>
+      </c>
+      <c r="C152" t="n">
+        <v>69006.955</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>152</v>
+      </c>
+      <c r="B153" t="n">
+        <v>80333.34491920001</v>
+      </c>
+      <c r="C153" t="n">
+        <v>69006.955</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>153</v>
+      </c>
+      <c r="B154" t="n">
+        <v>89537.13532106005</v>
+      </c>
+      <c r="C154" t="n">
+        <v>69006.955</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>154</v>
+      </c>
+      <c r="B155" t="n">
+        <v>321960.1955232154</v>
+      </c>
+      <c r="C155" t="n">
+        <v>69006.875</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>155</v>
+      </c>
+      <c r="B156" t="n">
+        <v>76011.85471400003</v>
+      </c>
+      <c r="C156" t="n">
+        <v>69006.875</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>156</v>
+      </c>
+      <c r="B157" t="n">
+        <v>531143.331146145</v>
+      </c>
+      <c r="C157" t="n">
+        <v>67406.87499999999</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>157</v>
+      </c>
+      <c r="B158" t="n">
+        <v>69128.85344520002</v>
+      </c>
+      <c r="C158" t="n">
+        <v>66712.55309999999</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>158</v>
+      </c>
+      <c r="B159" t="n">
+        <v>568748.9692756312</v>
+      </c>
+      <c r="C159" t="n">
+        <v>66712.55309999999</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>159</v>
+      </c>
+      <c r="B160" t="n">
+        <v>76147.99481934696</v>
+      </c>
+      <c r="C160" t="n">
+        <v>66112.55309999999</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>160</v>
+      </c>
+      <c r="B161" t="n">
+        <v>66751.40980600001</v>
+      </c>
+      <c r="C161" t="n">
+        <v>64710.8656</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>161</v>
+      </c>
+      <c r="B162" t="n">
+        <v>74175.56558928001</v>
+      </c>
+      <c r="C162" t="n">
+        <v>64710.8656</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>162</v>
+      </c>
+      <c r="B163" t="n">
+        <v>323768.8921075004</v>
+      </c>
+      <c r="C163" t="n">
+        <v>64510.80529999999</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>163</v>
+      </c>
+      <c r="B164" t="n">
+        <v>70141.47427357329</v>
+      </c>
+      <c r="C164" t="n">
+        <v>64047.6715</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>164</v>
+      </c>
+      <c r="B165" t="n">
+        <v>65151.80512800001</v>
+      </c>
+      <c r="C165" t="n">
+        <v>64047.6715</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>165</v>
+      </c>
+      <c r="B166" t="n">
+        <v>64825.67430315999</v>
+      </c>
+      <c r="C166" t="n">
+        <v>64044.93730000001</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>166</v>
+      </c>
+      <c r="B167" t="n">
+        <v>65723.621678</v>
+      </c>
+      <c r="C167" t="n">
+        <v>64044.93730000001</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>167</v>
+      </c>
+      <c r="B168" t="n">
+        <v>600868.7227880041</v>
+      </c>
+      <c r="C168" t="n">
+        <v>64044.93730000001</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>168</v>
+      </c>
+      <c r="B169" t="n">
+        <v>190582.6294516246</v>
+      </c>
+      <c r="C169" t="n">
+        <v>63045.20730000001</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>169</v>
+      </c>
+      <c r="B170" t="n">
+        <v>64641.94050471998</v>
+      </c>
+      <c r="C170" t="n">
+        <v>63045.20730000001</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>170</v>
+      </c>
+      <c r="B171" t="n">
+        <v>71273.55437959994</v>
+      </c>
+      <c r="C171" t="n">
+        <v>60945.20730000001</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>171</v>
+      </c>
+      <c r="B172" t="n">
+        <v>69575.16640999995</v>
+      </c>
+      <c r="C172" t="n">
+        <v>60945.20730000001</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>172</v>
+      </c>
+      <c r="B173" t="n">
+        <v>307054.4882511983</v>
+      </c>
+      <c r="C173" t="n">
+        <v>60945.20730000001</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>173</v>
+      </c>
+      <c r="B174" t="n">
+        <v>425991.4407394023</v>
+      </c>
+      <c r="C174" t="n">
+        <v>60945.20730000001</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>174</v>
+      </c>
+      <c r="B175" t="n">
+        <v>323539.1844660031</v>
+      </c>
+      <c r="C175" t="n">
+        <v>60944.64749999999</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>175</v>
+      </c>
+      <c r="B176" t="n">
+        <v>325146.7940071524</v>
+      </c>
+      <c r="C176" t="n">
+        <v>60944.64749999999</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>176</v>
+      </c>
+      <c r="B177" t="n">
+        <v>65200.76634879995</v>
+      </c>
+      <c r="C177" t="n">
+        <v>60845.34730000001</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>177</v>
+      </c>
+      <c r="B178" t="n">
+        <v>69268.87615399998</v>
+      </c>
+      <c r="C178" t="n">
+        <v>60837.06859999998</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>178</v>
+      </c>
+      <c r="B179" t="n">
+        <v>1980212.315401852</v>
+      </c>
+      <c r="C179" t="n">
+        <v>60837.06859999998</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>179</v>
+      </c>
+      <c r="B180" t="n">
+        <v>1209533.145977342</v>
+      </c>
+      <c r="C180" t="n">
+        <v>60837.06859999998</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>180</v>
+      </c>
+      <c r="B181" t="n">
+        <v>1266098.189949532</v>
+      </c>
+      <c r="C181" t="n">
+        <v>60837.06859999998</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>181</v>
+      </c>
+      <c r="B182" t="n">
+        <v>68315.74848985994</v>
+      </c>
+      <c r="C182" t="n">
+        <v>60837.06859999998</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>182</v>
+      </c>
+      <c r="B183" t="n">
+        <v>61715.62868479993</v>
+      </c>
+      <c r="C183" t="n">
+        <v>60821.15859999998</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>183</v>
+      </c>
+      <c r="B184" t="n">
+        <v>106709.1130784121</v>
+      </c>
+      <c r="C184" t="n">
+        <v>60815.05710000001</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>184</v>
+      </c>
+      <c r="B185" t="n">
+        <v>296869.749562</v>
+      </c>
+      <c r="C185" t="n">
+        <v>60815.05710000001</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>185</v>
+      </c>
+      <c r="B186" t="n">
+        <v>62439.07506415924</v>
+      </c>
+      <c r="C186" t="n">
+        <v>60218.08219999998</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>186</v>
+      </c>
+      <c r="B187" t="n">
+        <v>1035581.789818435</v>
+      </c>
+      <c r="C187" t="n">
+        <v>60218.08219999998</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>187</v>
+      </c>
+      <c r="B188" t="n">
+        <v>193724.0313004902</v>
+      </c>
+      <c r="C188" t="n">
+        <v>60218.08219999998</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>188</v>
+      </c>
+      <c r="B189" t="n">
+        <v>65781.84783600004</v>
+      </c>
+      <c r="C189" t="n">
+        <v>59918.08219999998</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>189</v>
+      </c>
+      <c r="B190" t="n">
+        <v>60173.99294400003</v>
+      </c>
+      <c r="C190" t="n">
+        <v>59918.08219999998</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>190</v>
+      </c>
+      <c r="B191" t="n">
+        <v>60307.90990200001</v>
+      </c>
+      <c r="C191" t="n">
+        <v>59918.08219999998</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>191</v>
+      </c>
+      <c r="B192" t="n">
+        <v>60147.77525502083</v>
+      </c>
+      <c r="C192" t="n">
+        <v>59515.64499999999</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>192</v>
+      </c>
+      <c r="B193" t="n">
+        <v>61598.50030466668</v>
+      </c>
+      <c r="C193" t="n">
+        <v>59515.64499999999</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>193</v>
+      </c>
+      <c r="B194" t="n">
+        <v>270121.1298902</v>
+      </c>
+      <c r="C194" t="n">
+        <v>59515.64499999999</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>194</v>
+      </c>
+      <c r="B195" t="n">
+        <v>64453.968094</v>
+      </c>
+      <c r="C195" t="n">
+        <v>59515.64499999999</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>195</v>
+      </c>
+      <c r="B196" t="n">
+        <v>826666.5708249292</v>
+      </c>
+      <c r="C196" t="n">
+        <v>58515.64499999999</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>196</v>
+      </c>
+      <c r="B197" t="n">
+        <v>70587.42940976056</v>
+      </c>
+      <c r="C197" t="n">
+        <v>58515.64499999999</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>197</v>
+      </c>
+      <c r="B198" t="n">
+        <v>59633.29052200001</v>
+      </c>
+      <c r="C198" t="n">
+        <v>58515.64499999999</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>198</v>
+      </c>
+      <c r="B199" t="n">
+        <v>76216.51917660002</v>
+      </c>
+      <c r="C199" t="n">
+        <v>58515.64499999999</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>199</v>
+      </c>
+      <c r="B200" t="n">
+        <v>648821.1577737471</v>
+      </c>
+      <c r="C200" t="n">
+        <v>57915.64499999999</v>
       </c>
     </row>
   </sheetData>
